--- a/biology/Zoologie/Arbanitis_lynabra/Arbanitis_lynabra.xlsx
+++ b/biology/Zoologie/Arbanitis_lynabra/Arbanitis_lynabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbanitis lynabra est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbanitis lynabra est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre vers Wahroonga dans le Nord de Sydney[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre vers Wahroonga dans le Nord de Sydney.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,93 mm de long sur 3,52 mm et l'abdomen 4,18 mm de long sur 2,31 mm et la carapace de la femelle paratype mesure 5,77 mm de long sur 4,18 mm et l'abdomen 9,60 mm de long sur 5,39 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,93 mm de long sur 3,52 mm et l'abdomen 4,18 mm de long sur 2,31 mm et la carapace de la femelle paratype mesure 5,77 mm de long sur 4,18 mm et l'abdomen 9,60 mm de long sur 5,39 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lyn Abra[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lyn Abra.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wishart, 2006 : Trapdoor spiders of the genus Misgolas (Mygalomorphae: Idiopidae) in the Sydney region, Australia, with notes on synonymies attributed to M. rapax. Records of the Australian Museum, vol. 58, no 1, p. 1-18 (texte intégral).</t>
         </is>
